--- a/biology/Zoologie/Heteronotia_binoei/Heteronotia_binoei.xlsx
+++ b/biology/Zoologie/Heteronotia_binoei/Heteronotia_binoei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteronotia binoei est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteronotia binoei est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, en Australie-Méridionale, dans le nord du Victoria, en Nouvelle-Galles du Sud et au Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, en Australie-Méridionale, dans le nord du Victoria, en Nouvelle-Galles du Sud et au Queensland.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre dans divers habitats, des zones arides aux zones boisées mais pas dans les forêts.
 Durant le jour la température peut atteindre les 30 °C, voire les dépasser en plein été, mais ces geckos préfèrent rester dans des endroits plus frais, aux alentours de 25 °C. La nuit la température redescend vers 20 °C. Durant le court hiver, les températures chutent vers 16 °C voire moins.
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos insectivore de couleur variable. On en trouve des orange ou des bruns, avec des bandes claires et/ou des points sombres.
 Il existe deux variantes de cette espèce. Une classique et une parthénogènique, c'est-à-dire que les femelles peuvent se reproduire seules, sans accouplement avec un mâle.
@@ -608,7 +626,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction débute au retour de la saison chaude.
 Les femelles pondent les œufs deux par deux, parfois jusqu'à quatre fois dans la saison. Ce sont des œufs à coquille dure.
@@ -642,9 +662,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Benjamin Bynoe (1804–1865)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Benjamin Bynoe (1804–1865).
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce en terrariophilie.
 </t>
@@ -704,7 +728,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gray, 1845 : Catalogue of the specimens of lizards in the collection of the British Museum, p. 1-289 (texte intégral).</t>
         </is>
